--- a/data/trans_orig/P19C03-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P19C03-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>108718</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>92537</v>
+        <v>91899</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>127113</v>
+        <v>127934</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2745987331838949</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2337307249031532</v>
+        <v>0.2321170489949173</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3210625841702016</v>
+        <v>0.3231351435913199</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>181</v>
@@ -765,19 +765,19 @@
         <v>192155</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>166511</v>
+        <v>168577</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>214999</v>
+        <v>216032</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.26300715088904</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2279079976320633</v>
+        <v>0.2307355742610994</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2942747916325715</v>
+        <v>0.2956889196750421</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>287</v>
@@ -786,19 +786,19 @@
         <v>300872</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>272509</v>
+        <v>272796</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>329384</v>
+        <v>331618</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2670810026092708</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.241902864388029</v>
+        <v>0.2421577407632743</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2923904748784052</v>
+        <v>0.294373670169771</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>287197</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>268802</v>
+        <v>267981</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>303378</v>
+        <v>304016</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7254012668161052</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6789374158297984</v>
+        <v>0.6768648564086801</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7662692750968468</v>
+        <v>0.7678829510050829</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>520</v>
@@ -836,19 +836,19 @@
         <v>538451</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>515607</v>
+        <v>514574</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>564095</v>
+        <v>562029</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.73699284911096</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7057252083674282</v>
+        <v>0.7043110803249578</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7720920023679365</v>
+        <v>0.7692644257389003</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>808</v>
@@ -857,19 +857,19 @@
         <v>825649</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>797137</v>
+        <v>794903</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>854012</v>
+        <v>853725</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7329189973907293</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7076095251215948</v>
+        <v>0.705626329830229</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7580971356119712</v>
+        <v>0.7578422592367257</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>249073</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>220867</v>
+        <v>224298</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>274978</v>
+        <v>276813</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3116817262003358</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2763858709999829</v>
+        <v>0.2806800650242168</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3440994270329969</v>
+        <v>0.3463955061282278</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>288</v>
@@ -982,19 +982,19 @@
         <v>293580</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>267101</v>
+        <v>265461</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>322802</v>
+        <v>322201</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3454109246624836</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3142574967828559</v>
+        <v>0.3123273176827223</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.379792053944126</v>
+        <v>0.3790844219551461</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>532</v>
@@ -1003,19 +1003,19 @@
         <v>542653</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>506002</v>
+        <v>504000</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>581878</v>
+        <v>584050</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3290660386588815</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3068408993656758</v>
+        <v>0.3056267099902833</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3528526749221229</v>
+        <v>0.3541697236132451</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>550052</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>524147</v>
+        <v>522312</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>578258</v>
+        <v>574827</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6883182737996643</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6559005729670031</v>
+        <v>0.6536044938717722</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7236141290000173</v>
+        <v>0.7193199349757833</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>539</v>
@@ -1053,19 +1053,19 @@
         <v>556364</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>527142</v>
+        <v>527743</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>582843</v>
+        <v>584483</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6545890753375164</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6202079460558743</v>
+        <v>0.6209155780448539</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6857425032171441</v>
+        <v>0.6876726823172777</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1075</v>
@@ -1074,19 +1074,19 @@
         <v>1106416</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1067191</v>
+        <v>1065019</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1143067</v>
+        <v>1145069</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6709339613411186</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6471473250778771</v>
+        <v>0.6458302763867549</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6931591006343235</v>
+        <v>0.6943732900097166</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>316497</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>286846</v>
+        <v>288489</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>343451</v>
+        <v>346785</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3554148664335036</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.322117833374309</v>
+        <v>0.3239630792516859</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3856826982957044</v>
+        <v>0.3894267012804639</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>280</v>
@@ -1199,19 +1199,19 @@
         <v>283915</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>256848</v>
+        <v>257201</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>310947</v>
+        <v>311666</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3422218348407324</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3095957466653745</v>
+        <v>0.3100216535130049</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3748045044866299</v>
+        <v>0.3756709613947831</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>589</v>
@@ -1220,19 +1220,19 @@
         <v>600413</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>562798</v>
+        <v>558430</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>638144</v>
+        <v>637584</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3490518072207456</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.327184134901494</v>
+        <v>0.3246445968487656</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3709865985092582</v>
+        <v>0.3706613368458289</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>574004</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>547050</v>
+        <v>543716</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>603655</v>
+        <v>602012</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6445851335664964</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6143173017042957</v>
+        <v>0.6105732987195363</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.677882166625691</v>
+        <v>0.6760369207483141</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>542</v>
@@ -1270,19 +1270,19 @@
         <v>545709</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>518677</v>
+        <v>517958</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>572776</v>
+        <v>572423</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6577781651592676</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6251954955133701</v>
+        <v>0.624329038605217</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6904042533346255</v>
+        <v>0.6899783464869959</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1106</v>
@@ -1291,19 +1291,19 @@
         <v>1119713</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1081982</v>
+        <v>1082542</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1157328</v>
+        <v>1161696</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6509481927792544</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6290134014907417</v>
+        <v>0.6293386631541711</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6728158650985056</v>
+        <v>0.6753554031512343</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>106933</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>89071</v>
+        <v>90735</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>124138</v>
+        <v>123546</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3145440247337158</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2620037028098765</v>
+        <v>0.2668984915834158</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3651518168472498</v>
+        <v>0.3634125797617286</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>91</v>
@@ -1416,19 +1416,19 @@
         <v>91909</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>78442</v>
+        <v>78630</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>107783</v>
+        <v>109792</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3298691925457848</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2815341972189305</v>
+        <v>0.2822104514256693</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3868444372549052</v>
+        <v>0.3940551087804554</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>196</v>
@@ -1437,19 +1437,19 @@
         <v>198842</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>175517</v>
+        <v>175121</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>223257</v>
+        <v>223570</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3214467742327848</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.28374024317841</v>
+        <v>0.2830994416822833</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.360916269500279</v>
+        <v>0.3614227723933181</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>233029</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>215824</v>
+        <v>216416</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>250891</v>
+        <v>249227</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6854559752662842</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6348481831527502</v>
+        <v>0.6365874202382713</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7379962971901233</v>
+        <v>0.7331015084165842</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>187</v>
@@ -1487,19 +1487,19 @@
         <v>186713</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>170839</v>
+        <v>168830</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>200180</v>
+        <v>199992</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6701308074542152</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6131555627450949</v>
+        <v>0.6059448912195446</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7184658027810694</v>
+        <v>0.7177895485743306</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>412</v>
@@ -1508,19 +1508,19 @@
         <v>419742</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>395327</v>
+        <v>395014</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>443067</v>
+        <v>443463</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6785532257672152</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6390837304997204</v>
+        <v>0.6385772276066819</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7162597568215895</v>
+        <v>0.7169005583177167</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>781221</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>734460</v>
+        <v>734838</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>827621</v>
+        <v>828616</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3220860767320402</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3028073913974232</v>
+        <v>0.3029633363993954</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3412160379320121</v>
+        <v>0.3416263511606373</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>840</v>
@@ -1633,19 +1633,19 @@
         <v>861559</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>813843</v>
+        <v>815306</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>910206</v>
+        <v>910646</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3204255028659151</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3026794478709902</v>
+        <v>0.3032235805253752</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3385181174415947</v>
+        <v>0.3386815958925855</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1604</v>
@@ -1654,19 +1654,19 @@
         <v>1642780</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1572265</v>
+        <v>1584274</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1708982</v>
+        <v>1713020</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3212130450692418</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.307425356245261</v>
+        <v>0.3097734413990714</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3341577165452751</v>
+        <v>0.3349472088858264</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1644282</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1597882</v>
+        <v>1596887</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1691043</v>
+        <v>1690665</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6779139232679599</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6587839620679878</v>
+        <v>0.6583736488393627</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6971926086025767</v>
+        <v>0.6970366636006046</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1788</v>
@@ -1704,19 +1704,19 @@
         <v>1827237</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1778590</v>
+        <v>1778150</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1874953</v>
+        <v>1873490</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6795744971340849</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6614818825584055</v>
+        <v>0.6613184041074145</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.69732055212901</v>
+        <v>0.6967764194746248</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3401</v>
@@ -1725,19 +1725,19 @@
         <v>3471519</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3405317</v>
+        <v>3401279</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3542034</v>
+        <v>3530025</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6787869549307582</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6658422834547248</v>
+        <v>0.6650527911141736</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.692574643754739</v>
+        <v>0.6902265586009286</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>227652</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>199834</v>
+        <v>203823</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>255634</v>
+        <v>252286</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2758108236922905</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2421084172569323</v>
+        <v>0.2469405545004862</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3097131894803257</v>
+        <v>0.3056560769992919</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>253</v>
@@ -2090,19 +2090,19 @@
         <v>271641</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>244034</v>
+        <v>243364</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>303099</v>
+        <v>298871</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2867015539758363</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2575641745024874</v>
+        <v>0.2568566112816492</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3199042241324457</v>
+        <v>0.315441144584514</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>470</v>
@@ -2111,19 +2111,19 @@
         <v>499293</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>460099</v>
+        <v>461799</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>541158</v>
+        <v>540530</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2816311540341101</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2595234324050363</v>
+        <v>0.2604826425259097</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3052457579650318</v>
+        <v>0.3048917958367257</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>597739</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>569757</v>
+        <v>573105</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>625557</v>
+        <v>621568</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7241891763077095</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6902868105196743</v>
+        <v>0.6943439230007085</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7578915827430681</v>
+        <v>0.753059445499514</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>620</v>
@@ -2161,19 +2161,19 @@
         <v>675828</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>644370</v>
+        <v>648598</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>703435</v>
+        <v>704105</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7132984460241637</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6800957758675543</v>
+        <v>0.684558855415486</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7424358254975126</v>
+        <v>0.7431433887183507</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1176</v>
@@ -2182,19 +2182,19 @@
         <v>1273567</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1231702</v>
+        <v>1232330</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1312761</v>
+        <v>1311061</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7183688459658899</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6947542420349681</v>
+        <v>0.6951082041632743</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7404765675949635</v>
+        <v>0.7395173574740903</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>261775</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>236379</v>
+        <v>234096</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>291488</v>
+        <v>290296</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3117042877812388</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2814636026658829</v>
+        <v>0.2787452717065918</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3470836854934615</v>
+        <v>0.3456640070127554</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>262</v>
@@ -2307,19 +2307,19 @@
         <v>277497</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>250704</v>
+        <v>248353</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>307365</v>
+        <v>306922</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2882035279328447</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2603766122572683</v>
+        <v>0.257934419449292</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3192235205401118</v>
+        <v>0.3187639394505798</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>514</v>
@@ -2328,19 +2328,19 @@
         <v>539273</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>499843</v>
+        <v>497863</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>581210</v>
+        <v>577129</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2991519495792322</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2772787022947205</v>
+        <v>0.2761805344171142</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3224160987779564</v>
+        <v>0.3201518022636162</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>578045</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>548332</v>
+        <v>549524</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>603441</v>
+        <v>605724</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6882957122187612</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6529163145065385</v>
+        <v>0.6543359929872444</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.718536397334117</v>
+        <v>0.7212547282934081</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>634</v>
@@ -2378,19 +2378,19 @@
         <v>685355</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>655487</v>
+        <v>655930</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>712148</v>
+        <v>714499</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7117964720671554</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6807764794598882</v>
+        <v>0.6812360605494201</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7396233877427317</v>
+        <v>0.742065580550708</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1181</v>
@@ -2399,19 +2399,19 @@
         <v>1263399</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1221462</v>
+        <v>1225543</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1302829</v>
+        <v>1304809</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7008480504207677</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6775839012220435</v>
+        <v>0.6798481977363838</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7227212977052794</v>
+        <v>0.7238194655828857</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>238076</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>213671</v>
+        <v>212743</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>263873</v>
+        <v>263586</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.306032718117901</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2746609451452728</v>
+        <v>0.2734690717186682</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3391928786629143</v>
+        <v>0.3388244079454233</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>239</v>
@@ -2524,19 +2524,19 @@
         <v>251356</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>224732</v>
+        <v>225925</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>279023</v>
+        <v>279858</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3118186101559072</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2787898164149695</v>
+        <v>0.2802695445009057</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.346140788137702</v>
+        <v>0.34717595674005</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>464</v>
@@ -2545,19 +2545,19 @@
         <v>489432</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>455783</v>
+        <v>452264</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>529390</v>
+        <v>527713</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.308977083314321</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2877345158776257</v>
+        <v>0.2855126989552446</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3342025458657923</v>
+        <v>0.3331437332346869</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>539867</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>514070</v>
+        <v>514357</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>564272</v>
+        <v>565200</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.693967281882099</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6608071213370856</v>
+        <v>0.6611755920545767</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.725339054854727</v>
+        <v>0.7265309282813318</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>516</v>
@@ -2595,19 +2595,19 @@
         <v>554742</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>527075</v>
+        <v>526240</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>581366</v>
+        <v>580173</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6881813898440927</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6538592118622981</v>
+        <v>0.65282404325995</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7212101835850305</v>
+        <v>0.7197304554990943</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1023</v>
@@ -2616,19 +2616,19 @@
         <v>1094608</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1054650</v>
+        <v>1056327</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1128257</v>
+        <v>1131776</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6910229166856789</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6657974541342079</v>
+        <v>0.6668562667653132</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7122654841223744</v>
+        <v>0.7144873010447553</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>140944</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>121515</v>
+        <v>120544</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>162444</v>
+        <v>162093</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3103130592462207</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2675373354163837</v>
+        <v>0.2653994033603441</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3576504167670256</v>
+        <v>0.3568783523896649</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>97</v>
@@ -2741,19 +2741,19 @@
         <v>105282</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>87192</v>
+        <v>88000</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>124237</v>
+        <v>124078</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2545918493127958</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2108451920398164</v>
+        <v>0.2127990568260461</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3004265240208115</v>
+        <v>0.3000429924326911</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>225</v>
@@ -2762,19 +2762,19 @@
         <v>246226</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>220045</v>
+        <v>216889</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>275062</v>
+        <v>274272</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2837580796761847</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2535864761876804</v>
+        <v>0.2499488501125882</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3169896789341402</v>
+        <v>0.3160792820266456</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>313254</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>291754</v>
+        <v>292105</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>332683</v>
+        <v>333654</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6896869407537793</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6423495832329744</v>
+        <v>0.643121647610335</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7324626645836166</v>
+        <v>0.7346005966396557</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>280</v>
@@ -2812,19 +2812,19 @@
         <v>308252</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>289297</v>
+        <v>289456</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>326342</v>
+        <v>325534</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7454081506872042</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6995734759791886</v>
+        <v>0.6999570075673089</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7891548079601837</v>
+        <v>0.7872009431739539</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>568</v>
@@ -2833,19 +2833,19 @@
         <v>621506</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>592670</v>
+        <v>593460</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>647687</v>
+        <v>650843</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7162419203238153</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6830103210658598</v>
+        <v>0.6839207179733544</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7464135238123194</v>
+        <v>0.7500511498874118</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>868447</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>819943</v>
+        <v>818808</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>919327</v>
+        <v>917636</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2997381230179076</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2829973023722729</v>
+        <v>0.282605531819429</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3172990897319726</v>
+        <v>0.316715376020518</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>851</v>
@@ -2958,19 +2958,19 @@
         <v>905777</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>856201</v>
+        <v>850489</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>966747</v>
+        <v>956244</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2893899405521427</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2735506122681718</v>
+        <v>0.2717259064098311</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3088695511371236</v>
+        <v>0.3055138143508953</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1673</v>
@@ -2979,19 +2979,19 @@
         <v>1774224</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1699509</v>
+        <v>1702777</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1847416</v>
+        <v>1845954</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2943643579890226</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2819682318953879</v>
+        <v>0.2825105270277349</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3065078817829426</v>
+        <v>0.3062651800489539</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2028905</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1978025</v>
+        <v>1979716</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2077409</v>
+        <v>2078544</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7002618769820924</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.682700910268027</v>
+        <v>0.683284623979482</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7170026976277271</v>
+        <v>0.717394468180571</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2050</v>
@@ -3029,19 +3029,19 @@
         <v>2224176</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2163206</v>
+        <v>2173709</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2273752</v>
+        <v>2279464</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7106100594478574</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6911304488628766</v>
+        <v>0.6944861856491049</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7264493877318282</v>
+        <v>0.7282740935901689</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3948</v>
@@ -3050,19 +3050,19 @@
         <v>4253081</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4179889</v>
+        <v>4181351</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4327796</v>
+        <v>4324528</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7056356420109775</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6934921182170574</v>
+        <v>0.6937348199510461</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7180317681046121</v>
+        <v>0.7174894729722651</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>213143</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>186791</v>
+        <v>187872</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>238916</v>
+        <v>240430</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2717407957190393</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2381435866602307</v>
+        <v>0.2395213759870626</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3045992260967755</v>
+        <v>0.3065294333736427</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>242</v>
@@ -3415,19 +3415,19 @@
         <v>246145</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>217686</v>
+        <v>221766</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>273241</v>
+        <v>274232</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2667616489191479</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2359194353920425</v>
+        <v>0.2403411151978006</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2961270674168909</v>
+        <v>0.2972013612952215</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>440</v>
@@ -3436,19 +3436,19 @@
         <v>459288</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>422116</v>
+        <v>420105</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>493539</v>
+        <v>496541</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2690494547385501</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2472740011205173</v>
+        <v>0.2460963902636484</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2891135339961703</v>
+        <v>0.2908723191870091</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>571220</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>545447</v>
+        <v>543933</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>597572</v>
+        <v>596491</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7282592042809607</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6954007739032251</v>
+        <v>0.6934705666263573</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7618564133397693</v>
+        <v>0.7604786240129374</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>645</v>
@@ -3486,19 +3486,19 @@
         <v>676569</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>649473</v>
+        <v>648482</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>705028</v>
+        <v>700948</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7332383510808521</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7038729325831091</v>
+        <v>0.7027986387047784</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7640805646079573</v>
+        <v>0.7596588848021993</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1184</v>
@@ -3507,19 +3507,19 @@
         <v>1247789</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1213538</v>
+        <v>1210536</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1284961</v>
+        <v>1286972</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7309505452614499</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7108864660038298</v>
+        <v>0.709127680812991</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7527259988794827</v>
+        <v>0.7539036097363515</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>233855</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>209858</v>
+        <v>209148</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>257752</v>
+        <v>261369</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3273826027388343</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.293788594550197</v>
+        <v>0.2927938172083688</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3608373228927431</v>
+        <v>0.3658999674926172</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>215</v>
@@ -3632,19 +3632,19 @@
         <v>222802</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>195235</v>
+        <v>197654</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>248501</v>
+        <v>247920</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2643968831686181</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2316830289455133</v>
+        <v>0.2345530573590544</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2948927186276148</v>
+        <v>0.2942034654514343</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>442</v>
@@ -3653,19 +3653,19 @@
         <v>456657</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>424922</v>
+        <v>421698</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>495540</v>
+        <v>493973</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2932933441121067</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2729111101477413</v>
+        <v>0.2708399950618197</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3182658372631243</v>
+        <v>0.3172598917719092</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>480462</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>456565</v>
+        <v>452948</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>504459</v>
+        <v>505169</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6726173972611658</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6391626771072569</v>
+        <v>0.6341000325073829</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7062114054498031</v>
+        <v>0.7072061827916313</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>583</v>
@@ -3703,19 +3703,19 @@
         <v>619880</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>594181</v>
+        <v>594762</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>647447</v>
+        <v>645028</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7356031168313819</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7051072813723852</v>
+        <v>0.7057965345485661</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7683169710544868</v>
+        <v>0.7654469426409457</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1050</v>
@@ -3724,19 +3724,19 @@
         <v>1100342</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1061459</v>
+        <v>1063026</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1132077</v>
+        <v>1135301</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7067066558878933</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6817341627368757</v>
+        <v>0.6827401082280907</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7270888898522586</v>
+        <v>0.7291600049381801</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>187507</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>164189</v>
+        <v>165872</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>214030</v>
+        <v>211103</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2618481993950718</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2292851688902832</v>
+        <v>0.2316358576920395</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2988860831858922</v>
+        <v>0.2947987528139694</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>178</v>
@@ -3849,19 +3849,19 @@
         <v>183044</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>161735</v>
+        <v>159218</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>207649</v>
+        <v>208450</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2777731565124965</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2454369613826541</v>
+        <v>0.2416175657533068</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3151112557680179</v>
+        <v>0.3163273268109111</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>351</v>
@@ -3870,19 +3870,19 @@
         <v>370551</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>337921</v>
+        <v>337776</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>405366</v>
+        <v>408520</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2694799041906779</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2457503509308833</v>
+        <v>0.2456445220498607</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2947985566388946</v>
+        <v>0.2970925003644304</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>528584</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>502061</v>
+        <v>504988</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>551902</v>
+        <v>550219</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7381518006049282</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7011139168141078</v>
+        <v>0.7052012471860306</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7707148311097168</v>
+        <v>0.7683641423079606</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>450</v>
@@ -3920,19 +3920,19 @@
         <v>475925</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>451320</v>
+        <v>450519</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>497234</v>
+        <v>499751</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7222268434875034</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6848887442319821</v>
+        <v>0.683672673189089</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7545630386173459</v>
+        <v>0.7583824342466933</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>960</v>
@@ -3941,19 +3941,19 @@
         <v>1004509</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>969694</v>
+        <v>966540</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1037139</v>
+        <v>1037284</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7305200958093221</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7052014433611054</v>
+        <v>0.7029074996355695</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7542496490691165</v>
+        <v>0.7543554779501392</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>94998</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>78706</v>
+        <v>77130</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>114299</v>
+        <v>111954</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2210519327926622</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1831425506237459</v>
+        <v>0.1794746200495965</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2659646335002646</v>
+        <v>0.2605073652594173</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>93</v>
@@ -4066,19 +4066,19 @@
         <v>99856</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>82530</v>
+        <v>83179</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>117625</v>
+        <v>118822</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2314963078169191</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1913290522097703</v>
+        <v>0.1928324128484276</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2726900798499525</v>
+        <v>0.2754644923904719</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>181</v>
@@ -4087,19 +4087,19 @@
         <v>194855</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>170920</v>
+        <v>169890</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>220333</v>
+        <v>218486</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.226283810485567</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1984891075141741</v>
+        <v>0.1972926821635032</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2558715851461194</v>
+        <v>0.2537269241322215</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>334756</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>315455</v>
+        <v>317800</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>351048</v>
+        <v>352624</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7789480672073378</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7340353664997351</v>
+        <v>0.7394926347405827</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8168574493762537</v>
+        <v>0.8205253799504034</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>311</v>
@@ -4137,19 +4137,19 @@
         <v>331496</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>313727</v>
+        <v>312530</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>348822</v>
+        <v>348173</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7685036921830809</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7273099201500475</v>
+        <v>0.7245355076095281</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8086709477902291</v>
+        <v>0.8071675871515724</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>620</v>
@@ -4158,19 +4158,19 @@
         <v>666252</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>640774</v>
+        <v>642621</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>690187</v>
+        <v>691217</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.773716189514433</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7441284148538807</v>
+        <v>0.7462730758677785</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8015108924858259</v>
+        <v>0.8027073178364967</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>729504</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>683306</v>
+        <v>683964</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>773005</v>
+        <v>774730</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2758542426435807</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2583851080694513</v>
+        <v>0.2586337497128642</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2923037763993557</v>
+        <v>0.2929559205168173</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>728</v>
@@ -4283,19 +4283,19 @@
         <v>751847</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>708836</v>
+        <v>704654</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>805522</v>
+        <v>802941</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2632780105744976</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2482166455508926</v>
+        <v>0.2467522116303264</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2820733764567792</v>
+        <v>0.2811698353523813</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1414</v>
@@ -4304,19 +4304,19 @@
         <v>1481351</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1418920</v>
+        <v>1416715</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1546391</v>
+        <v>1545324</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2693246837602923</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2579739816937759</v>
+        <v>0.2575732540099266</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2811495020424916</v>
+        <v>0.2809555120627543</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1915022</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1871521</v>
+        <v>1869796</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1961220</v>
+        <v>1960562</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7241457573564193</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7076962236006447</v>
+        <v>0.7070440794831828</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7416148919305489</v>
+        <v>0.7413662502871359</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1989</v>
@@ -4354,19 +4354,19 @@
         <v>2103870</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2050195</v>
+        <v>2052776</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2146881</v>
+        <v>2151063</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7367219894255024</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7179266235432206</v>
+        <v>0.7188301646476185</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7517833544491073</v>
+        <v>0.7532477883696735</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3814</v>
@@ -4375,19 +4375,19 @@
         <v>4018892</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3953852</v>
+        <v>3954919</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4081323</v>
+        <v>4083528</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7306753162397076</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7188504979575084</v>
+        <v>0.7190444879372457</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7420260183062241</v>
+        <v>0.7424267459900733</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>111207</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>92640</v>
+        <v>90398</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>135568</v>
+        <v>134426</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2465315106691817</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2053712041282125</v>
+        <v>0.2004003433974786</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3005378695203202</v>
+        <v>0.2980058460319947</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>150</v>
@@ -4740,19 +4740,19 @@
         <v>118713</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>100635</v>
+        <v>99973</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>138400</v>
+        <v>138347</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2014842738375231</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1708010242255463</v>
+        <v>0.1696773367369142</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2348977126940069</v>
+        <v>0.2348083169225648</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>236</v>
@@ -4761,19 +4761,19 @@
         <v>229920</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>203726</v>
+        <v>199971</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>260535</v>
+        <v>261271</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2210176317756632</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1958382184883225</v>
+        <v>0.1922280470065026</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2504471206617661</v>
+        <v>0.251154629764019</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>339878</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>315517</v>
+        <v>316659</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>358445</v>
+        <v>360687</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7534684893308181</v>
+        <v>0.7534684893308182</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6994621304796796</v>
+        <v>0.701994153968005</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7946287958717874</v>
+        <v>0.7995996566025213</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>667</v>
@@ -4811,19 +4811,19 @@
         <v>470480</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>450793</v>
+        <v>450846</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>488558</v>
+        <v>489220</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7985157261624769</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7651022873059933</v>
+        <v>0.7651916830774351</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8291989757744538</v>
+        <v>0.8303226632630859</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>992</v>
@@ -4832,19 +4832,19 @@
         <v>810358</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>779743</v>
+        <v>779007</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>836552</v>
+        <v>840307</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7789823682243369</v>
+        <v>0.7789823682243366</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.749552879338234</v>
+        <v>0.7488453702359812</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8041617815116776</v>
+        <v>0.8077719529934977</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>187644</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>159050</v>
+        <v>161515</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>217736</v>
+        <v>218225</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2037027391244848</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1726611498049104</v>
+        <v>0.1753372792521753</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2363696680762801</v>
+        <v>0.2369006316783612</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>278</v>
@@ -4957,19 +4957,19 @@
         <v>199654</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>177555</v>
+        <v>178851</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>222004</v>
+        <v>223372</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1837653163897734</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1634249761746771</v>
+        <v>0.1646181163232566</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2043370639630599</v>
+        <v>0.2055957686303002</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>434</v>
@@ -4978,19 +4978,19 @@
         <v>387298</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>350839</v>
+        <v>351493</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>425439</v>
+        <v>424668</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1929132829494349</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1747531216098435</v>
+        <v>0.1750786556657794</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.211911178887157</v>
+        <v>0.2115271524081054</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>733524</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>703432</v>
+        <v>702943</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>762118</v>
+        <v>759653</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7962972608755151</v>
+        <v>0.7962972608755152</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7636303319237201</v>
+        <v>0.7630993683216388</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8273388501950898</v>
+        <v>0.824662720747825</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1288</v>
@@ -5028,19 +5028,19 @@
         <v>886806</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>864456</v>
+        <v>863088</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>908905</v>
+        <v>907609</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8162346836102266</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7956629360369403</v>
+        <v>0.7944042313697</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8365750238253228</v>
+        <v>0.8353818836767434</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2012</v>
@@ -5049,19 +5049,19 @@
         <v>1620330</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1582189</v>
+        <v>1582960</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1656789</v>
+        <v>1656135</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.807086717050565</v>
+        <v>0.8070867170505652</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7880888211128427</v>
+        <v>0.7884728475918946</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8252468783901564</v>
+        <v>0.8249213443342205</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>164672</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>140418</v>
+        <v>141715</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>194083</v>
+        <v>195762</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1606684490107961</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1370036522477515</v>
+        <v>0.1382692100133106</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1893643903949064</v>
+        <v>0.1910021157750686</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>245</v>
@@ -5174,19 +5174,19 @@
         <v>167693</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>150080</v>
+        <v>145480</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>190538</v>
+        <v>188830</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1627928679507502</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1456940718053292</v>
+        <v>0.141228444732228</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1849702353282152</v>
+        <v>0.1833121867394458</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>399</v>
@@ -5195,19 +5195,19 @@
         <v>332366</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>299510</v>
+        <v>296484</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>364863</v>
+        <v>367089</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1617333384928615</v>
+        <v>0.1617333384928616</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1457454161857543</v>
+        <v>0.1442727997806578</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1775470079467837</v>
+        <v>0.1786304293952868</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>860246</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>830835</v>
+        <v>829156</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>884500</v>
+        <v>883203</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8393315509892039</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8106356096050936</v>
+        <v>0.8089978842249316</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8629963477522492</v>
+        <v>0.8617307899866895</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1248</v>
@@ -5245,19 +5245,19 @@
         <v>862410</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>839565</v>
+        <v>841273</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>880023</v>
+        <v>884623</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8372071320492497</v>
+        <v>0.8372071320492498</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8150297646717849</v>
+        <v>0.8166878132605541</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8543059281946709</v>
+        <v>0.8587715552677718</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2101</v>
@@ -5266,19 +5266,19 @@
         <v>1722656</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1690159</v>
+        <v>1687933</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1755512</v>
+        <v>1758538</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8382666615071382</v>
+        <v>0.8382666615071384</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.822452992053216</v>
+        <v>0.8213695706047133</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8542545838142456</v>
+        <v>0.8557272002193422</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>172754</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>150237</v>
+        <v>149656</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>200100</v>
+        <v>199533</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1818470662035087</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1581446603869885</v>
+        <v>0.1575330879226717</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2106323531405662</v>
+        <v>0.2100350093252716</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>257</v>
@@ -5391,19 +5391,19 @@
         <v>170388</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>150126</v>
+        <v>149669</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>192369</v>
+        <v>194169</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1934583157134625</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1704536142999679</v>
+        <v>0.1699348397209543</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2184157564629018</v>
+        <v>0.2204597802292084</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>425</v>
@@ -5412,19 +5412,19 @@
         <v>343142</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>311889</v>
+        <v>313726</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>377456</v>
+        <v>380799</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1874330820554705</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1703619526402505</v>
+        <v>0.1713654342390249</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2061764202897786</v>
+        <v>0.2080021656523127</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>777244</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>749898</v>
+        <v>750465</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>799761</v>
+        <v>800342</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8181529337964913</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7893676468594336</v>
+        <v>0.7899649906747285</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8418553396130112</v>
+        <v>0.8424669120773285</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1026</v>
@@ -5462,19 +5462,19 @@
         <v>710358</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>688377</v>
+        <v>686577</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>730620</v>
+        <v>731077</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8065416842865374</v>
+        <v>0.8065416842865376</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7815842435370981</v>
+        <v>0.7795402197707919</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8295463857000319</v>
+        <v>0.8300651602790459</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1779</v>
@@ -5483,19 +5483,19 @@
         <v>1487602</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1453288</v>
+        <v>1449945</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1518855</v>
+        <v>1517018</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8125669179445293</v>
+        <v>0.8125669179445296</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7938235797102214</v>
+        <v>0.7919978343476872</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8296380473597497</v>
+        <v>0.8286345657609749</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>636277</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>584729</v>
+        <v>587520</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>688845</v>
+        <v>693561</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1900942042475002</v>
+        <v>0.1900942042475003</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1746936287180164</v>
+        <v>0.1755275555009433</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2057991865537506</v>
+        <v>0.2072081205589814</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>930</v>
@@ -5608,19 +5608,19 @@
         <v>656448</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>611463</v>
+        <v>615091</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>698600</v>
+        <v>703211</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1830328975776031</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.170490016810835</v>
+        <v>0.1715014756762488</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1947859645935536</v>
+        <v>0.1960715242489594</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1494</v>
@@ -5629,19 +5629,19 @@
         <v>1292726</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1229122</v>
+        <v>1227366</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1352854</v>
+        <v>1362512</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1864416809851111</v>
+        <v>0.1864416809851112</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1772685148472929</v>
+        <v>0.1770153247579179</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1951136009126517</v>
+        <v>0.1965065018328225</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2710892</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2658324</v>
+        <v>2653608</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2762440</v>
+        <v>2759649</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8099057957524999</v>
+        <v>0.8099057957524998</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7942008134462494</v>
+        <v>0.7927918794410183</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8253063712819835</v>
+        <v>0.8244724444990565</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4229</v>
@@ -5679,19 +5679,19 @@
         <v>2930055</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2887903</v>
+        <v>2883292</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2975040</v>
+        <v>2971412</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8169671024223969</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8052140354064465</v>
+        <v>0.8039284757510406</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8295099831891652</v>
+        <v>0.8284985243237513</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6884</v>
@@ -5700,19 +5700,19 @@
         <v>5640947</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5580819</v>
+        <v>5571161</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5704551</v>
+        <v>5706307</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8135583190148888</v>
+        <v>0.813558319014889</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8048863990873483</v>
+        <v>0.8034934981671775</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.822731485152707</v>
+        <v>0.8229846752420821</v>
       </c>
     </row>
     <row r="18">
